--- a/src/R/risk_cut_offs.xlsx
+++ b/src/R/risk_cut_offs.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisfernandoquezada/Documents/GitHub/omrat/src/R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5aee5c5b004427f/Documents/mr-risk-assessment/src/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3000F7B1-5591-004E-9E57-DC5BECDCDCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{85DFDE16-855A-41E6-A82B-8C7B944FBDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="4IUe0vZA9ppDvYk2rqHn4/oopCFz0G3W/bfe5kiRmMEvGcAoLLw+rTyGWen+MX/d1WQQrT/rPJAL6GKuAFHBGg==" workbookSaltValue="r4/fI8JiPEYHCmYpUuLwqw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="25620" yWindow="500" windowWidth="25600" windowHeight="19360" xr2:uid="{A86B4100-66DC-1145-A6E2-FBAFBD537D86}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A86B4100-66DC-1145-A6E2-FBAFBD537D86}"/>
   </bookViews>
   <sheets>
     <sheet name="non_outbreak" sheetId="1" r:id="rId1"/>
@@ -509,9 +509,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -549,7 +549,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -655,7 +655,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -797,7 +797,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -807,15 +807,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0EEBFD-E706-A64C-9026-1882C7BEC4AB}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="81" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="5" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -832,7 +834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
@@ -849,7 +851,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -866,7 +868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
@@ -883,7 +885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
@@ -900,7 +902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
@@ -917,7 +919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
@@ -934,8 +936,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="21" t="s">
         <v>0</v>
       </c>
@@ -944,7 +946,7 @@
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>1</v>
       </c>
@@ -961,7 +963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
@@ -982,7 +984,7 @@
         <v>30 &lt; x &lt;=  40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
@@ -1003,7 +1005,7 @@
         <v>15 &lt; x &lt;=  20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
@@ -1024,7 +1026,7 @@
         <v>12 &lt; x &lt;=  16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>9</v>
       </c>
@@ -1045,7 +1047,7 @@
         <v>9 &lt; x &lt;=  12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>10</v>
       </c>
@@ -1066,7 +1068,7 @@
         <v>9 &lt; x &lt;=  12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="13" t="s">
         <v>11</v>
       </c>
@@ -1100,15 +1102,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF2A4B3-2495-D04A-808C-6FCA2136274D}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="141" zoomScaleNormal="81" workbookViewId="0"/>
+    <sheetView zoomScale="141" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
     <col min="2" max="5" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1125,7 +1129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
@@ -1142,7 +1146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -1159,7 +1163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
@@ -1176,7 +1180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
@@ -1193,7 +1197,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
@@ -1210,7 +1214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
@@ -1227,8 +1231,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1241,7 @@
       <c r="D9" s="25"/>
       <c r="E9" s="26"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
@@ -1254,7 +1258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
@@ -1275,7 +1279,7 @@
         <v>30 &lt; x &lt;=  40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
@@ -1296,7 +1300,7 @@
         <v>15 &lt; x &lt;=  20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
@@ -1317,7 +1321,7 @@
         <v>12 &lt; x &lt;=  16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>9</v>
       </c>
@@ -1338,7 +1342,7 @@
         <v>14 &lt; x &lt;=  18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>10</v>
       </c>
@@ -1359,7 +1363,7 @@
         <v>7 &lt; x &lt;=  6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="13" t="s">
         <v>11</v>
       </c>
